--- a/biology/Zoologie/Coccyzus/Coccyzus.xlsx
+++ b/biology/Zoologie/Coccyzus/Coccyzus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le genre Coccyzus regroupe 9 à 15 espèces de Coulicous, oiseaux de la famille des Cuculidae.
 Selon des travaux du South American Classification Committee de 2007, deux de ses espèces ont été classées dans le genre Coccycua. Depuis 2006, l'American Ornithologists' Union y a intégré les 4 espèces du genre Saurothera et les 2 du genre Hyetornis.
@@ -512,7 +524,9 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>D'après la classification de référence (version 2.2, 2009) du Congrès ornithologique international (ordre phylogénique) :
 Coccyzus melacoryphus – Coulicou de Vieillot
